--- a/SRAD_acre_MJ.xlsx
+++ b/SRAD_acre_MJ.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/lvargasr_purdue_edu/Documents/Spring 2025/AGR 33300/Introduction_PBCMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{3D21723C-A5E5-4252-BFA4-CFDF4BC0BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B99C74-3757-4C5C-AE77-41CAE0860FEB}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{3D21723C-A5E5-4252-BFA4-CFDF4BC0BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41FF98B8-6BE5-4118-8C3F-D93C0D13B6EE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A048986D-6AA3-4E2A-93D7-D17658B19120}"/>
   </bookViews>
   <sheets>
     <sheet name="SRAD_acre" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -30,6 +43,18 @@
   <si>
     <t>SRAD_MJ</t>
   </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>RUE</t>
+  </si>
+  <si>
+    <t>DDMP</t>
+  </si>
+  <si>
+    <t>TDMP</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +374,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,9 +543,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -571,6 +603,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF6FD21-9097-447A-A10D-8931181A9AB6}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +939,7 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,752 +949,523 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45427</v>
       </c>
       <c r="B2">
         <v>168</v>
       </c>
-      <c r="C2">
-        <f>B2 * 3600 * 24 / 1000000</f>
-        <v>14.5152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45428</v>
       </c>
       <c r="B3">
         <v>188</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C63" si="0">B3 * 3600 * 24 / 1000000</f>
-        <v>16.243200000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45429</v>
       </c>
       <c r="B4">
         <v>279</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>24.105599999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45430</v>
       </c>
       <c r="B5">
         <v>288</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>24.883199999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45431</v>
       </c>
       <c r="B6">
         <v>264</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>22.8096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45432</v>
       </c>
       <c r="B7">
         <v>317</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>27.3888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45433</v>
       </c>
       <c r="B8">
         <v>315</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>27.216000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45434</v>
       </c>
       <c r="B9">
         <v>339</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>29.2896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45435</v>
       </c>
       <c r="B10">
         <v>357</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>30.844799999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45436</v>
       </c>
       <c r="B11">
         <v>191</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>16.502400000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45437</v>
       </c>
       <c r="B12">
         <v>359</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>31.017600000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45438</v>
       </c>
       <c r="B13">
         <v>142</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>12.268800000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45439</v>
       </c>
       <c r="B14">
         <v>179</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>15.4656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45440</v>
       </c>
       <c r="B15">
         <v>300</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>25.92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45441</v>
       </c>
       <c r="B16">
         <v>322</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>27.820799999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45442</v>
       </c>
       <c r="B17">
         <v>387</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>33.436799999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45443</v>
       </c>
       <c r="B18">
         <v>336</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>29.0304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45444</v>
       </c>
       <c r="B19">
         <v>102</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>8.8127999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45445</v>
       </c>
       <c r="B20">
         <v>220</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>19.007999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45446</v>
       </c>
       <c r="B21">
         <v>342</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>29.5488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45447</v>
       </c>
       <c r="B22">
         <v>270</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>23.327999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45448</v>
       </c>
       <c r="B23">
         <v>146</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>12.6144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45449</v>
       </c>
       <c r="B24">
         <v>366</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>31.622399999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45450</v>
       </c>
       <c r="B25">
         <v>372</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>32.140799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45451</v>
       </c>
       <c r="B26">
         <v>209</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>18.057600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45452</v>
       </c>
       <c r="B27">
         <v>344</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>29.721599999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45453</v>
       </c>
       <c r="B28">
         <v>259</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>22.377600000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45454</v>
       </c>
       <c r="B29">
         <v>387</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>33.436799999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45455</v>
       </c>
       <c r="B30">
         <v>345</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>29.808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45456</v>
       </c>
       <c r="B31">
         <v>352</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>30.412800000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45457</v>
       </c>
       <c r="B32">
         <v>382</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>33.004800000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45458</v>
       </c>
       <c r="B33">
         <v>358</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>30.9312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45459</v>
       </c>
       <c r="B34">
         <v>356</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>30.758400000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45460</v>
       </c>
       <c r="B35">
         <v>330</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>28.512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45461</v>
       </c>
       <c r="B36">
         <v>242</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>20.908799999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45462</v>
       </c>
       <c r="B37">
         <v>353</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>30.499199999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45463</v>
       </c>
       <c r="B38">
         <v>344</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>29.721599999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45464</v>
       </c>
       <c r="B39">
         <v>350</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>30.24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45465</v>
       </c>
       <c r="B40">
         <v>297</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>25.660799999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45466</v>
       </c>
       <c r="B41">
         <v>285</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>24.623999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45467</v>
       </c>
       <c r="B42">
         <v>369</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>31.881599999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45468</v>
       </c>
       <c r="B43">
         <v>84</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>7.2576000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45469</v>
       </c>
       <c r="B44">
         <v>144</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>12.441599999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45470</v>
       </c>
       <c r="B45">
         <v>386</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>33.3504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45471</v>
       </c>
       <c r="B46">
         <v>166</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>14.3424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45472</v>
       </c>
       <c r="B47">
         <v>210</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>18.143999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45473</v>
       </c>
       <c r="B48">
         <v>364</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>31.4496</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45474</v>
       </c>
       <c r="B49">
         <v>372</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>32.140799999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45475</v>
       </c>
       <c r="B50">
         <v>344</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>29.721599999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45476</v>
       </c>
       <c r="B51">
         <v>219</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>18.921600000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45477</v>
       </c>
       <c r="B52">
         <v>103</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>8.8992000000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45478</v>
       </c>
       <c r="B53">
         <v>208</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>17.9712</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45479</v>
       </c>
       <c r="B54">
         <v>344</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
-        <v>29.721599999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45480</v>
       </c>
       <c r="B55">
         <v>322</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>27.820799999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45481</v>
       </c>
       <c r="B56">
         <v>278</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>24.019200000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45482</v>
       </c>
       <c r="B57">
         <v>67</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
-        <v>5.7888000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45483</v>
       </c>
       <c r="B58">
         <v>316</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
-        <v>27.302399999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45484</v>
       </c>
       <c r="B59">
         <v>264</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>22.8096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45485</v>
       </c>
       <c r="B60">
         <v>309</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
-        <v>26.697600000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45486</v>
       </c>
       <c r="B61">
         <v>338</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
-        <v>29.203199999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45487</v>
       </c>
       <c r="B62">
         <v>198</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
-        <v>17.107199999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45488</v>
       </c>
       <c r="B63">
         <v>305</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
-        <v>26.352</v>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2">
+        <f>SUM(F2:F63)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>